--- a/electron/template.xlsx
+++ b/electron/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoine/Documents/GitHub/EBP-EVA-Battle-Plan-Tools/electron/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20391E58-E643-6544-B624-3095283B0C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E5EA4-1D1F-AD41-9AAC-E5C18E0A273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBP - EVA Battle Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
   <si>
     <t>This Excel have been made by the EBP - EVA Battle Plan's chrome extension</t>
   </si>
@@ -34,9 +34,6 @@
     <t>MAP NAME</t>
   </si>
   <si>
-    <t>OUTCOME</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t>BLUE TEAM</t>
   </si>
   <si>
-    <t>Kills</t>
-  </si>
-  <si>
-    <t>Deads</t>
-  </si>
-  <si>
-    <t>Assists</t>
-  </si>
-  <si>
     <t>NORMAL</t>
   </si>
   <si>
@@ -83,13 +71,19 @@
   </si>
   <si>
     <t>SCORE</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +120,21 @@
       <sz val="11"/>
       <color rgb="FF0C0C10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0C0B0F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -280,9 +289,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -302,6 +308,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -310,6 +322,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0C0B0F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,14 +387,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
@@ -415,13 +432,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
@@ -782,484 +799,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:CA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T28:T30"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="17" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="11" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="7.83203125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="12" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="12" customWidth="1"/>
-    <col min="21" max="21" width="7.83203125" style="12" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8" style="11" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="12" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="12" customWidth="1"/>
+    <col min="19" max="20" width="7.83203125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.33203125" style="11" customWidth="1"/>
     <col min="24" max="24" width="5.5" style="11" customWidth="1"/>
     <col min="25" max="25" width="6.83203125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="7.83203125" style="11" customWidth="1"/>
-    <col min="27" max="27" width="6.6640625" style="11" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="12" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="12" customWidth="1"/>
-    <col min="30" max="30" width="6.83203125" style="12" customWidth="1"/>
-    <col min="31" max="31" width="7.83203125" style="12" customWidth="1"/>
-    <col min="32" max="32" width="6.6640625" style="12" customWidth="1"/>
-    <col min="33" max="33" width="13.33203125" style="11" customWidth="1"/>
-    <col min="34" max="34" width="5.5" style="11" customWidth="1"/>
-    <col min="35" max="35" width="6.83203125" style="11" customWidth="1"/>
-    <col min="36" max="36" width="7.83203125" style="11" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" style="11" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" style="13" customWidth="1"/>
-    <col min="39" max="39" width="14.83203125" style="14" customWidth="1"/>
-    <col min="40" max="40" width="5.5" style="14" customWidth="1"/>
-    <col min="41" max="41" width="6.83203125" style="14" customWidth="1"/>
-    <col min="42" max="42" width="7.83203125" style="14" customWidth="1"/>
-    <col min="43" max="43" width="6.6640625" style="14" customWidth="1"/>
-    <col min="44" max="44" width="14.83203125" style="15" customWidth="1"/>
-    <col min="45" max="45" width="5.5" style="15" customWidth="1"/>
-    <col min="46" max="46" width="6.83203125" style="15" customWidth="1"/>
-    <col min="47" max="47" width="7.83203125" style="15" customWidth="1"/>
-    <col min="48" max="48" width="6.6640625" style="15" customWidth="1"/>
-    <col min="49" max="49" width="13.33203125" style="14" customWidth="1"/>
-    <col min="50" max="50" width="5.5" style="14" customWidth="1"/>
-    <col min="51" max="51" width="6.83203125" style="14" customWidth="1"/>
-    <col min="52" max="52" width="7.83203125" style="14" customWidth="1"/>
-    <col min="53" max="53" width="6.6640625" style="14" customWidth="1"/>
-    <col min="54" max="54" width="14.6640625" style="15" customWidth="1"/>
-    <col min="55" max="55" width="5.5" style="15" customWidth="1"/>
-    <col min="56" max="56" width="6.83203125" style="15" customWidth="1"/>
-    <col min="57" max="57" width="7.83203125" style="15" customWidth="1"/>
-    <col min="58" max="58" width="6.6640625" style="15" customWidth="1"/>
+    <col min="26" max="27" width="7.83203125" style="11" customWidth="1"/>
+    <col min="28" max="28" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" style="12" customWidth="1"/>
+    <col min="31" max="31" width="5.5" style="12" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" style="12" customWidth="1"/>
+    <col min="33" max="34" width="7.83203125" style="12" customWidth="1"/>
+    <col min="35" max="35" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.33203125" style="11" customWidth="1"/>
+    <col min="38" max="38" width="5.5" style="11" customWidth="1"/>
+    <col min="39" max="39" width="6.83203125" style="11" customWidth="1"/>
+    <col min="40" max="41" width="7.83203125" style="11" customWidth="1"/>
+    <col min="42" max="42" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" style="13" customWidth="1"/>
+    <col min="45" max="45" width="14.83203125" style="14" customWidth="1"/>
+    <col min="46" max="46" width="5.5" style="14" customWidth="1"/>
+    <col min="47" max="47" width="6.83203125" style="14" customWidth="1"/>
+    <col min="48" max="49" width="7.83203125" style="14" customWidth="1"/>
+    <col min="50" max="50" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.83203125" style="15" customWidth="1"/>
+    <col min="53" max="53" width="5.5" style="15" customWidth="1"/>
+    <col min="54" max="54" width="6.83203125" style="15" customWidth="1"/>
+    <col min="55" max="56" width="7.83203125" style="15" customWidth="1"/>
+    <col min="57" max="57" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="13.33203125" style="14" customWidth="1"/>
     <col min="60" max="60" width="5.5" style="14" customWidth="1"/>
     <col min="61" max="61" width="6.83203125" style="14" customWidth="1"/>
-    <col min="62" max="62" width="7.83203125" style="14" customWidth="1"/>
-    <col min="63" max="63" width="6.6640625" style="14" customWidth="1"/>
+    <col min="62" max="63" width="7.83203125" style="14" customWidth="1"/>
+    <col min="64" max="64" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.6640625" style="15" customWidth="1"/>
+    <col min="67" max="67" width="5.5" style="15" customWidth="1"/>
+    <col min="68" max="68" width="6.83203125" style="15" customWidth="1"/>
+    <col min="69" max="70" width="7.83203125" style="15" customWidth="1"/>
+    <col min="71" max="71" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.33203125" style="14" customWidth="1"/>
+    <col min="74" max="74" width="5.5" style="14" customWidth="1"/>
+    <col min="75" max="75" width="6.83203125" style="14" customWidth="1"/>
+    <col min="76" max="77" width="7.83203125" style="14" customWidth="1"/>
+    <col min="78" max="78" width="8.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:79" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+      <c r="B1" s="25">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22"/>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="22"/>
-      <c r="BJ1" s="22"/>
-      <c r="BK1" s="23"/>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="22"/>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="20" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="21" t="s">
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+      <c r="BX2" s="20"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
+      <c r="CA2" s="20"/>
+    </row>
+    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="V3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="AB3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="4" t="s">
+      <c r="AJ3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AP3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AR3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="AW3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AX3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AZ3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AZ3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB3" s="8" t="s">
+      <c r="BF3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="8" t="s">
+      <c r="BL3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="8" t="s">
+      <c r="BN3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="BP3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BE3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BT3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="H14" s="18"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="9"/>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="D14" s="17"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L2:AK2"/>
-    <mergeCell ref="AL2:BK2"/>
-    <mergeCell ref="C1:BK1"/>
+  <mergeCells count="9">
+    <mergeCell ref="H2:AQ2"/>
+    <mergeCell ref="AR2:CA2"/>
+    <mergeCell ref="C1:CA1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
